--- a/output/missing-values-hpv_vaccine.xlsx
+++ b/output/missing-values-hpv_vaccine.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t xml:space="preserve">TSH0037</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0076</t>
   </si>
   <si>
@@ -182,6 +188,12 @@
     <t xml:space="preserve">TSH0263</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0270</t>
   </si>
   <si>
@@ -194,6 +206,12 @@
     <t xml:space="preserve">TSH0289</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0320</t>
   </si>
   <si>
@@ -209,6 +227,9 @@
     <t xml:space="preserve">TSH0345</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0357</t>
   </si>
   <si>
@@ -284,6 +305,9 @@
     <t xml:space="preserve">TSH0696</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0698</t>
   </si>
   <si>
@@ -308,6 +332,9 @@
     <t xml:space="preserve">TSH0788</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0801</t>
   </si>
   <si>
@@ -317,12 +344,18 @@
     <t xml:space="preserve">TSH0823</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0831</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0848</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0892</t>
   </si>
   <si>
@@ -341,9 +374,15 @@
     <t xml:space="preserve">TSH0928</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0938</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0995</t>
   </si>
   <si>
@@ -410,6 +449,9 @@
     <t xml:space="preserve">TSH1329</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1353</t>
   </si>
   <si>
@@ -431,6 +473,9 @@
     <t xml:space="preserve">TSH1440</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1452</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1484</t>
   </si>
   <si>
@@ -443,6 +488,15 @@
     <t xml:space="preserve">TSH1591</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1758</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1767</t>
   </si>
   <si>
@@ -452,12 +506,21 @@
     <t xml:space="preserve">TSH1784</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1794</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1802</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1803</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1863</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1905</t>
   </si>
   <si>
@@ -465,6 +528,15 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1964</t>
   </si>
 </sst>
 </file>
@@ -950,7 +1022,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26"/>
     </row>
@@ -974,7 +1046,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30"/>
     </row>
@@ -986,7 +1058,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -1010,7 +1082,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36"/>
     </row>
@@ -1208,37 +1280,37 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B74"/>
     </row>
@@ -1751,6 +1823,150 @@
         <v>150</v>
       </c>
       <c r="B159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>151</v>
+      </c>
+      <c r="B160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>154</v>
+      </c>
+      <c r="B163"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>156</v>
+      </c>
+      <c r="B165"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>157</v>
+      </c>
+      <c r="B166"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>158</v>
+      </c>
+      <c r="B167"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>159</v>
+      </c>
+      <c r="B168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>160</v>
+      </c>
+      <c r="B169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>161</v>
+      </c>
+      <c r="B170"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>163</v>
+      </c>
+      <c r="B172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>165</v>
+      </c>
+      <c r="B174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>166</v>
+      </c>
+      <c r="B175"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>167</v>
+      </c>
+      <c r="B176"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>168</v>
+      </c>
+      <c r="B177"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>169</v>
+      </c>
+      <c r="B178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>170</v>
+      </c>
+      <c r="B179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>171</v>
+      </c>
+      <c r="B180"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>172</v>
+      </c>
+      <c r="B181"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>173</v>
+      </c>
+      <c r="B182"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>174</v>
+      </c>
+      <c r="B183"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
